--- a/event study/direction/zValue.xlsx
+++ b/event study/direction/zValue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>1.01</t>
   </si>
@@ -22,6 +22,9 @@
     <t>1.02</t>
   </si>
   <si>
+    <t>1.03</t>
+  </si>
+  <si>
     <t>1.04</t>
   </si>
   <si>
@@ -31,6 +34,12 @@
     <t>2.02</t>
   </si>
   <si>
+    <t>2.02101</t>
+  </si>
+  <si>
+    <t>2.02104</t>
+  </si>
+  <si>
     <t>2.03</t>
   </si>
   <si>
@@ -70,16 +79,34 @@
     <t>5.04</t>
   </si>
   <si>
+    <t>5.05</t>
+  </si>
+  <si>
+    <t>5.06</t>
+  </si>
+  <si>
     <t>5.07</t>
   </si>
   <si>
+    <t>5.08</t>
+  </si>
+  <si>
+    <t>6.01</t>
+  </si>
+  <si>
     <t>7.01</t>
   </si>
   <si>
+    <t>7.01104</t>
+  </si>
+  <si>
     <t>8.01</t>
   </si>
   <si>
     <t>9.01</t>
+  </si>
+  <si>
+    <t>9.09</t>
   </si>
 </sst>
 </file>
@@ -437,13 +464,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:AF5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:32">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,289 +537,364 @@
       <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:32">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-0.3311316392200904</v>
+        <v>1.019128013186967</v>
       </c>
       <c r="C2">
-        <v>0.2219033055296668</v>
+        <v>1.001867456104051</v>
       </c>
       <c r="D2">
-        <v>-2.549145419311563</v>
+        <v>-0.8659108870501986</v>
       </c>
       <c r="E2">
-        <v>1.443304928497502</v>
+        <v>0.796644918129827</v>
       </c>
       <c r="F2">
-        <v>0.3087983207437491</v>
+        <v>0.5330070943390612</v>
       </c>
       <c r="G2">
-        <v>1.031394011851504</v>
-      </c>
-      <c r="H2">
-        <v>0.9483613326635132</v>
-      </c>
-      <c r="I2">
-        <v>-2.025717618798855</v>
+        <v>4.692619918035422</v>
       </c>
       <c r="J2">
-        <v>0.2217332307496668</v>
+        <v>1.007293444485103</v>
       </c>
       <c r="K2">
-        <v>-0.1450147622575488</v>
+        <v>-0.2189422843056825</v>
       </c>
       <c r="L2">
-        <v>0.004460502825936407</v>
+        <v>1.520484553386293</v>
       </c>
       <c r="M2">
-        <v>0.2338639862543001</v>
+        <v>1.136447160627525</v>
       </c>
       <c r="N2">
-        <v>0.7974160298379491</v>
+        <v>0.9182884511319822</v>
       </c>
       <c r="O2">
-        <v>0.7169236353570509</v>
+        <v>1.00159157728164</v>
       </c>
       <c r="P2">
-        <v>0.5872751958725536</v>
+        <v>1.001988096930319</v>
       </c>
       <c r="Q2">
-        <v>-1.021055746226004</v>
+        <v>1.059166934240746</v>
       </c>
       <c r="R2">
-        <v>1.596084069319036</v>
+        <v>-0.9809545915992548</v>
       </c>
       <c r="S2">
-        <v>3.466383764884784</v>
+        <v>1.000163026953296</v>
       </c>
       <c r="T2">
-        <v>-1.010022433509728</v>
+        <v>0.9911275478418561</v>
       </c>
       <c r="U2">
-        <v>1.133387918837196</v>
+        <v>1.007479185531467</v>
       </c>
       <c r="V2">
-        <v>0.2823241943750197</v>
+        <v>-0.4804018302457203</v>
       </c>
       <c r="W2">
-        <v>0.1508214333055553</v>
+        <v>0.7098819669546385</v>
+      </c>
+      <c r="Y2">
+        <v>4.043904581016593</v>
+      </c>
+      <c r="Z2">
+        <v>-1.429958440970983</v>
+      </c>
+      <c r="AB2">
+        <v>1.041682005515321</v>
+      </c>
+      <c r="AD2">
+        <v>4.170974539791457</v>
+      </c>
+      <c r="AE2">
+        <v>1.162720593576321</v>
+      </c>
+      <c r="AF2">
+        <v>4.668624763024501</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:32">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.09397381928543524</v>
+        <v>1.419729594990967</v>
       </c>
       <c r="C3">
-        <v>0.2093866507680271</v>
+        <v>0.8098132619783192</v>
       </c>
       <c r="D3">
-        <v>-1.838214496488142</v>
+        <v>-0.8804787350360656</v>
       </c>
       <c r="E3">
-        <v>1.531361491118054</v>
+        <v>-0.7527398946868463</v>
       </c>
       <c r="F3">
-        <v>2.01781329549334</v>
+        <v>1.485228806188561</v>
       </c>
       <c r="G3">
-        <v>1.264276696573797</v>
-      </c>
-      <c r="H3">
-        <v>0.7482737477681959</v>
-      </c>
-      <c r="I3">
-        <v>-1.711752894596043</v>
+        <v>1.044149006653413</v>
       </c>
       <c r="J3">
-        <v>-0.4045683019817303</v>
+        <v>1.571601560651313</v>
       </c>
       <c r="K3">
-        <v>0.07834718292315357</v>
+        <v>-1.853435774538433</v>
       </c>
       <c r="L3">
-        <v>-1.620558848856572</v>
+        <v>-2.133425196058605</v>
       </c>
       <c r="M3">
-        <v>0.7013528465002472</v>
+        <v>-0.2328198866286959</v>
       </c>
       <c r="N3">
-        <v>0.5091997253699732</v>
+        <v>1.09315534340426</v>
       </c>
       <c r="O3">
-        <v>-2.130966166682288</v>
+        <v>-0.2199615144499406</v>
       </c>
       <c r="P3">
-        <v>0.5997675619135967</v>
+        <v>1.45582351289339</v>
       </c>
       <c r="Q3">
-        <v>-1.764312692406046</v>
+        <v>0.9167979533693968</v>
       </c>
       <c r="R3">
-        <v>1.592646815585456</v>
+        <v>-0.07671935984947174</v>
       </c>
       <c r="S3">
-        <v>2.825926454208853</v>
+        <v>0.1492011626335055</v>
       </c>
       <c r="T3">
-        <v>-1.734092740770193</v>
+        <v>-1.717593834261423</v>
       </c>
       <c r="U3">
-        <v>0.8834904118440251</v>
+        <v>1.033080923759809</v>
       </c>
       <c r="V3">
-        <v>1.077088353944895</v>
+        <v>-0.6165878898043818</v>
       </c>
       <c r="W3">
-        <v>1.073504444077968</v>
+        <v>2.19850520125355</v>
+      </c>
+      <c r="Y3">
+        <v>2.255861633517628</v>
+      </c>
+      <c r="Z3">
+        <v>1.717147406667136</v>
+      </c>
+      <c r="AB3">
+        <v>2.022355615343356</v>
+      </c>
+      <c r="AD3">
+        <v>2.278828046002257</v>
+      </c>
+      <c r="AE3">
+        <v>1.93943980498594</v>
+      </c>
+      <c r="AF3">
+        <v>1.275332092264911</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:32">
       <c r="A4" s="1">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.5298607512505579</v>
+        <v>2.047796779938004</v>
       </c>
       <c r="C4">
-        <v>-0.3907841145846134</v>
+        <v>-0.7935111057490913</v>
       </c>
       <c r="D4">
-        <v>-1.76095155886616</v>
+        <v>-2.799904114864645</v>
       </c>
       <c r="E4">
-        <v>-0.697554156845823</v>
+        <v>1.088531082809393</v>
       </c>
       <c r="F4">
-        <v>2.956385598135493</v>
+        <v>-1.030304572426115</v>
       </c>
       <c r="G4">
-        <v>0.7557291536942817</v>
-      </c>
-      <c r="H4">
-        <v>0.5891202093069873</v>
-      </c>
-      <c r="I4">
-        <v>-1.580543525104811</v>
+        <v>0.6536512859409763</v>
       </c>
       <c r="J4">
-        <v>-0.6780334290524093</v>
+        <v>0.2796252470808439</v>
       </c>
       <c r="K4">
-        <v>-2.081565059054757</v>
+        <v>-0.7049270325077786</v>
       </c>
       <c r="L4">
-        <v>-1.006539366062342</v>
+        <v>1.329592238014013</v>
       </c>
       <c r="M4">
-        <v>-0.9763651502993204</v>
+        <v>-0.3076401918475031</v>
       </c>
       <c r="N4">
-        <v>-1.490017259291772</v>
+        <v>1.353819651139295</v>
       </c>
       <c r="O4">
-        <v>-1.439802203792114</v>
+        <v>0.9536305075712556</v>
       </c>
       <c r="P4">
-        <v>-1.754812958221117</v>
+        <v>0.7647631370624434</v>
       </c>
       <c r="Q4">
-        <v>-1.435745378548354</v>
+        <v>0.9931135483620303</v>
       </c>
       <c r="R4">
-        <v>1.530819594430248</v>
+        <v>-0.8840668724572325</v>
       </c>
       <c r="S4">
-        <v>-0.871851103258375</v>
+        <v>0.2108881037220219</v>
       </c>
       <c r="T4">
-        <v>-1.432566977682582</v>
+        <v>0.726879351673275</v>
       </c>
       <c r="U4">
-        <v>0.1237436340329103</v>
+        <v>1.472982160544592</v>
       </c>
       <c r="V4">
-        <v>-0.2232924219777691</v>
+        <v>1.303136397836983</v>
       </c>
       <c r="W4">
-        <v>1.129258643267373</v>
+        <v>-1.322014907434063</v>
+      </c>
+      <c r="Y4">
+        <v>1.819165977995945</v>
+      </c>
+      <c r="Z4">
+        <v>0.7217739097520789</v>
+      </c>
+      <c r="AB4">
+        <v>1.932414236426901</v>
+      </c>
+      <c r="AD4">
+        <v>1.033914456706259</v>
+      </c>
+      <c r="AE4">
+        <v>2.740419635242606</v>
+      </c>
+      <c r="AF4">
+        <v>-0.841534593359319</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:32">
       <c r="A5" s="1">
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.08985585749262008</v>
+        <v>1.646091320093216</v>
       </c>
       <c r="C5">
-        <v>-0.8747853403146554</v>
+        <v>1.019068294548931</v>
       </c>
       <c r="D5">
-        <v>-1.867646219272021</v>
+        <v>0.7770910413592927</v>
       </c>
       <c r="E5">
-        <v>-1.834224409624042</v>
+        <v>-1.591215616441911</v>
       </c>
       <c r="F5">
-        <v>4.798823807708677</v>
+        <v>0.0005566693119767158</v>
       </c>
       <c r="G5">
-        <v>-0.3185721851547708</v>
-      </c>
-      <c r="H5">
-        <v>0.3317416789128777</v>
-      </c>
-      <c r="I5">
-        <v>-0.5084657995835979</v>
+        <v>-0.06156410645580299</v>
       </c>
       <c r="J5">
-        <v>-0.5482911269373326</v>
+        <v>1.315584163957357</v>
       </c>
       <c r="K5">
-        <v>-0.8929336338279886</v>
+        <v>0.4533178051505296</v>
       </c>
       <c r="L5">
-        <v>-0.5549726600428396</v>
+        <v>0.09947956509073096</v>
       </c>
       <c r="M5">
-        <v>-0.8349131075005857</v>
+        <v>0.422850736359627</v>
       </c>
       <c r="N5">
-        <v>-1.802084524841644</v>
+        <v>0.7225815442863321</v>
       </c>
       <c r="O5">
-        <v>-0.820241473246903</v>
+        <v>0.5969916780790113</v>
       </c>
       <c r="P5">
-        <v>-2.405372799278714</v>
+        <v>0.9654510753679291</v>
       </c>
       <c r="Q5">
-        <v>-3.046517485913229</v>
+        <v>-0.8925520523518428</v>
       </c>
       <c r="R5">
-        <v>0.4235455246434897</v>
+        <v>-0.191202657209271</v>
       </c>
       <c r="S5">
-        <v>0.2085140476682534</v>
+        <v>-1.561660514065271</v>
       </c>
       <c r="T5">
-        <v>-1.888081262445514</v>
+        <v>2.466969617764244</v>
       </c>
       <c r="U5">
-        <v>0.4845850177500957</v>
+        <v>1.740964100565879</v>
       </c>
       <c r="V5">
-        <v>-0.7128266415074738</v>
+        <v>-1.675172224356741</v>
       </c>
       <c r="W5">
-        <v>1.883767471507156</v>
+        <v>0.4215307603492267</v>
+      </c>
+      <c r="Y5">
+        <v>1.661050608828053</v>
+      </c>
+      <c r="Z5">
+        <v>-0.1453869816762276</v>
+      </c>
+      <c r="AB5">
+        <v>0.7613403786617255</v>
+      </c>
+      <c r="AD5">
+        <v>0.3395359790025819</v>
+      </c>
+      <c r="AE5">
+        <v>1.616418162387242</v>
+      </c>
+      <c r="AF5">
+        <v>-2.846829593707423</v>
       </c>
     </row>
   </sheetData>
